--- a/Docs/Requirements/importFromExcelTemplate/学生.xlsx
+++ b/Docs/Requirements/importFromExcelTemplate/学生.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>性别</t>
   </si>
@@ -110,9 +115,6 @@
     <t>微信</t>
   </si>
   <si>
-    <t>校区</t>
-  </si>
-  <si>
     <t>identity</t>
   </si>
   <si>
@@ -167,37 +169,28 @@
     <t>三年2班</t>
   </si>
   <si>
-    <t>天极海淀分校</t>
-  </si>
-  <si>
     <t>学校</t>
   </si>
   <si>
-    <t>教育集团</t>
-  </si>
-  <si>
     <t>北京天极中学</t>
-  </si>
-  <si>
-    <t>天极教育集团</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,7 +199,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,16 +258,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -309,8 +302,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,29 +594,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -641,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -656,75 +649,69 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>74110</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>123456666</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>333333</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
       <c r="O2">
         <v>123445</v>
@@ -740,12 +727,6 @@
       </c>
       <c r="S2" t="s">
         <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -754,35 +735,50 @@
     <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>